--- a/data/pca/factorExposure/factorExposure_2019-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.130756641309642</v>
+        <v>0.07839993249925944</v>
       </c>
       <c r="C2">
-        <v>-0.004445471917856722</v>
+        <v>-0.03977713295367106</v>
       </c>
       <c r="D2">
-        <v>0.03848575990540387</v>
+        <v>-0.01075711924996445</v>
       </c>
       <c r="E2">
-        <v>0.1092555802954277</v>
+        <v>0.03551954785285114</v>
       </c>
       <c r="F2">
-        <v>0.1035138747114507</v>
+        <v>-0.1426941096813408</v>
       </c>
       <c r="G2">
-        <v>-0.02649185045484993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1106177148964496</v>
+      </c>
+      <c r="H2">
+        <v>0.0517169685597741</v>
+      </c>
+      <c r="I2">
+        <v>-0.025117962994027</v>
+      </c>
+      <c r="J2">
+        <v>0.0770065406667374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2265425112654585</v>
+        <v>0.1695419248513852</v>
       </c>
       <c r="C3">
-        <v>0.1073618752159571</v>
+        <v>-0.09223292105479648</v>
       </c>
       <c r="D3">
-        <v>-0.06117423883627206</v>
+        <v>0.03748698884899053</v>
       </c>
       <c r="E3">
-        <v>0.3158537956024665</v>
+        <v>-0.03091562320927189</v>
       </c>
       <c r="F3">
-        <v>0.01266282168061941</v>
+        <v>-0.3657809919103985</v>
       </c>
       <c r="G3">
-        <v>-0.1365816337689614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09306270087423282</v>
+      </c>
+      <c r="H3">
+        <v>0.2803643392594481</v>
+      </c>
+      <c r="I3">
+        <v>-0.1934456137488733</v>
+      </c>
+      <c r="J3">
+        <v>0.2715791380695352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09937638370433984</v>
+        <v>0.07475113308266051</v>
       </c>
       <c r="C4">
-        <v>0.03449321103094958</v>
+        <v>-0.03876855831440702</v>
       </c>
       <c r="D4">
-        <v>0.02215241209270735</v>
+        <v>0.02990712080244994</v>
       </c>
       <c r="E4">
-        <v>0.07568006553559391</v>
+        <v>0.02996444920818028</v>
       </c>
       <c r="F4">
-        <v>0.03530702221457911</v>
+        <v>-0.08239350023318275</v>
       </c>
       <c r="G4">
-        <v>-0.04011437745175012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04498433982092052</v>
+      </c>
+      <c r="H4">
+        <v>0.02383767541646165</v>
+      </c>
+      <c r="I4">
+        <v>-0.03118607940585662</v>
+      </c>
+      <c r="J4">
+        <v>0.06315559557217382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01731005254596384</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.007349647699729628</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009361120129506507</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003826893481605226</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001764988035396742</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02119246801930601</v>
+      </c>
+      <c r="H6">
+        <v>0.003380885877776216</v>
+      </c>
+      <c r="I6">
+        <v>0.01117524937643589</v>
+      </c>
+      <c r="J6">
+        <v>0.0009499107493234726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04374109444031037</v>
+        <v>0.03589432855060769</v>
       </c>
       <c r="C7">
-        <v>0.007288161652982777</v>
+        <v>-0.006794333093044553</v>
       </c>
       <c r="D7">
-        <v>0.02952179802423554</v>
+        <v>0.04124555178930774</v>
       </c>
       <c r="E7">
-        <v>0.07367018721890994</v>
+        <v>0.02555266267460705</v>
       </c>
       <c r="F7">
-        <v>-0.05211826175153339</v>
+        <v>-0.05491045547142055</v>
       </c>
       <c r="G7">
-        <v>0.001232526508251518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005633838980886342</v>
+      </c>
+      <c r="H7">
+        <v>0.04556706198808027</v>
+      </c>
+      <c r="I7">
+        <v>0.008358369565809697</v>
+      </c>
+      <c r="J7">
+        <v>0.05157926235274481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04287270750793735</v>
+        <v>0.03001742467317821</v>
       </c>
       <c r="C8">
-        <v>0.04449483022320885</v>
+        <v>-0.04112862811870822</v>
       </c>
       <c r="D8">
-        <v>0.0005417253861695304</v>
+        <v>0.02969028573975406</v>
       </c>
       <c r="E8">
-        <v>0.0699541288880675</v>
+        <v>0.01010994003809883</v>
       </c>
       <c r="F8">
-        <v>0.006475448109267975</v>
+        <v>-0.0729775791265978</v>
       </c>
       <c r="G8">
-        <v>-0.02164420313897381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02128462135321984</v>
+      </c>
+      <c r="H8">
+        <v>0.04905337703876805</v>
+      </c>
+      <c r="I8">
+        <v>-0.0309319954707039</v>
+      </c>
+      <c r="J8">
+        <v>0.06721689923913551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08771788038740964</v>
+        <v>0.06179790070006266</v>
       </c>
       <c r="C9">
-        <v>0.03456014210869777</v>
+        <v>-0.03338898224685917</v>
       </c>
       <c r="D9">
-        <v>0.02986231652829847</v>
+        <v>0.03272283452402375</v>
       </c>
       <c r="E9">
-        <v>0.06139157056755133</v>
+        <v>0.02701319626975376</v>
       </c>
       <c r="F9">
-        <v>0.02353904868818735</v>
+        <v>-0.08267877633227357</v>
       </c>
       <c r="G9">
-        <v>-0.0557308548829249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04315110773147768</v>
+      </c>
+      <c r="H9">
+        <v>0.01984307504067875</v>
+      </c>
+      <c r="I9">
+        <v>-0.01321171888116473</v>
+      </c>
+      <c r="J9">
+        <v>0.04139737482970779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001848786115489662</v>
+        <v>0.02049984228143704</v>
       </c>
       <c r="C10">
-        <v>-0.1579633730209636</v>
+        <v>0.1413278127772652</v>
       </c>
       <c r="D10">
-        <v>-0.01873511409773753</v>
+        <v>-0.06658891710045034</v>
       </c>
       <c r="E10">
-        <v>0.06844370735773217</v>
+        <v>-0.01652837156845428</v>
       </c>
       <c r="F10">
-        <v>0.01892709711957786</v>
+        <v>-0.07187246763600939</v>
       </c>
       <c r="G10">
-        <v>0.02064342564496588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02421325239303652</v>
+      </c>
+      <c r="H10">
+        <v>-0.001927189768433578</v>
+      </c>
+      <c r="I10">
+        <v>-0.1119018810735777</v>
+      </c>
+      <c r="J10">
+        <v>0.005751114418603262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05773807682042925</v>
+        <v>0.04921233371759117</v>
       </c>
       <c r="C11">
-        <v>0.007281387542479647</v>
+        <v>-0.0275432597367938</v>
       </c>
       <c r="D11">
-        <v>-0.01097737853733578</v>
+        <v>0.002299472807973206</v>
       </c>
       <c r="E11">
-        <v>0.03837914272896331</v>
+        <v>0.003676700243099159</v>
       </c>
       <c r="F11">
-        <v>0.007923851357502894</v>
+        <v>-0.04020512595235178</v>
       </c>
       <c r="G11">
-        <v>0.02205950831501642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.009143747977934049</v>
+      </c>
+      <c r="H11">
+        <v>0.001469657446267317</v>
+      </c>
+      <c r="I11">
+        <v>0.01927450208250304</v>
+      </c>
+      <c r="J11">
+        <v>0.04158631782199063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.044837038932211</v>
+        <v>0.04682957241923703</v>
       </c>
       <c r="C12">
-        <v>0.01416008715563397</v>
+        <v>-0.02198224646003913</v>
       </c>
       <c r="D12">
-        <v>-0.006253749226332678</v>
+        <v>0.01192499515617997</v>
       </c>
       <c r="E12">
-        <v>0.02751157518002098</v>
+        <v>0.006856313441081833</v>
       </c>
       <c r="F12">
-        <v>-0.001564443685572715</v>
+        <v>-0.01746840428287534</v>
       </c>
       <c r="G12">
-        <v>0.0003817325413273477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0002536654328520127</v>
+      </c>
+      <c r="H12">
+        <v>0.002273183784334934</v>
+      </c>
+      <c r="I12">
+        <v>0.01653191799223607</v>
+      </c>
+      <c r="J12">
+        <v>0.02592956200378135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06383499698839264</v>
+        <v>0.04234319225893461</v>
       </c>
       <c r="C13">
-        <v>0.01914144392199475</v>
+        <v>-0.03048929181112335</v>
       </c>
       <c r="D13">
-        <v>-0.01727678551657717</v>
+        <v>-0.005060513946028425</v>
       </c>
       <c r="E13">
-        <v>0.1055871023581186</v>
+        <v>0.003236495211220212</v>
       </c>
       <c r="F13">
-        <v>0.01656261038601883</v>
+        <v>-0.104867961617065</v>
       </c>
       <c r="G13">
-        <v>-0.001252704135589369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0235221520206771</v>
+      </c>
+      <c r="H13">
+        <v>0.04778805051740903</v>
+      </c>
+      <c r="I13">
+        <v>-0.003551384684784309</v>
+      </c>
+      <c r="J13">
+        <v>0.05983732161808619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03820123501338808</v>
+        <v>0.02891929709966581</v>
       </c>
       <c r="C14">
-        <v>0.008186556075100826</v>
+        <v>-0.01476425490838652</v>
       </c>
       <c r="D14">
-        <v>0.02119439158394253</v>
+        <v>0.01199591083689386</v>
       </c>
       <c r="E14">
-        <v>0.01917610161448428</v>
+        <v>0.02329075727569133</v>
       </c>
       <c r="F14">
-        <v>0.002742149177898016</v>
+        <v>-0.03852522555597444</v>
       </c>
       <c r="G14">
-        <v>0.02197658541438533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03023867541076906</v>
+      </c>
+      <c r="H14">
+        <v>0.05082898454853879</v>
+      </c>
+      <c r="I14">
+        <v>-0.008425043873696043</v>
+      </c>
+      <c r="J14">
+        <v>0.01769955091583289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04755378452580847</v>
+        <v>0.04448186470021078</v>
       </c>
       <c r="C16">
-        <v>0.02330934992515514</v>
+        <v>-0.03251423841512981</v>
       </c>
       <c r="D16">
-        <v>-0.01457007889994956</v>
+        <v>0.01065189393168653</v>
       </c>
       <c r="E16">
-        <v>0.03238098985237035</v>
+        <v>0.000144969636192178</v>
       </c>
       <c r="F16">
-        <v>-0.00485893549936368</v>
+        <v>-0.03338659770748267</v>
       </c>
       <c r="G16">
-        <v>0.006736696919189076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.003432369703050735</v>
+      </c>
+      <c r="H16">
+        <v>0.008105628528692177</v>
+      </c>
+      <c r="I16">
+        <v>0.01648162449666997</v>
+      </c>
+      <c r="J16">
+        <v>0.03503699217676463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0525029629550034</v>
+        <v>0.04753922841808932</v>
       </c>
       <c r="C19">
-        <v>0.03055700781744619</v>
+        <v>-0.04250016782855485</v>
       </c>
       <c r="D19">
-        <v>-0.01130417599990522</v>
+        <v>0.01464682907846091</v>
       </c>
       <c r="E19">
-        <v>0.07024191155558181</v>
+        <v>0.01103337040278115</v>
       </c>
       <c r="F19">
-        <v>-0.01521780404150286</v>
+        <v>-0.0821967008416238</v>
       </c>
       <c r="G19">
-        <v>0.02658679574723249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01222155241400881</v>
+      </c>
+      <c r="H19">
+        <v>0.08371368082241391</v>
+      </c>
+      <c r="I19">
+        <v>-0.0311062135462466</v>
+      </c>
+      <c r="J19">
+        <v>0.05101174242386502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03880432765797852</v>
+        <v>0.01910347581359919</v>
       </c>
       <c r="C20">
-        <v>0.03755311541174292</v>
+        <v>-0.02783419708205632</v>
       </c>
       <c r="D20">
-        <v>0.01090305216385088</v>
+        <v>0.01841685084470789</v>
       </c>
       <c r="E20">
-        <v>0.06295782106645827</v>
+        <v>0.01534996921667356</v>
       </c>
       <c r="F20">
-        <v>-0.01344256659870043</v>
+        <v>-0.06834117379215322</v>
       </c>
       <c r="G20">
-        <v>0.00592066987270633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0166988571754179</v>
+      </c>
+      <c r="H20">
+        <v>0.0715457886733203</v>
+      </c>
+      <c r="I20">
+        <v>-0.01517906154761156</v>
+      </c>
+      <c r="J20">
+        <v>0.08208254782190796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04052315770487463</v>
+        <v>0.02357225137766036</v>
       </c>
       <c r="C21">
-        <v>0.02147043001420469</v>
+        <v>-0.02451787531823888</v>
       </c>
       <c r="D21">
-        <v>-0.001406666835638627</v>
+        <v>0.02614969991376505</v>
       </c>
       <c r="E21">
-        <v>0.09234322944725384</v>
+        <v>0.0007181786674570044</v>
       </c>
       <c r="F21">
-        <v>0.04891235451682686</v>
+        <v>-0.07773316163103584</v>
       </c>
       <c r="G21">
-        <v>0.005655544492753637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03471754455974985</v>
+      </c>
+      <c r="H21">
+        <v>0.02578580561921389</v>
+      </c>
+      <c r="I21">
+        <v>0.01258332882456391</v>
+      </c>
+      <c r="J21">
+        <v>0.03136823311207999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04956806706186248</v>
+        <v>0.04345240282185758</v>
       </c>
       <c r="C24">
-        <v>0.01613824892822754</v>
+        <v>-0.02254530173424979</v>
       </c>
       <c r="D24">
-        <v>-0.004718129912752167</v>
+        <v>0.006546529147129775</v>
       </c>
       <c r="E24">
-        <v>0.04229764675510121</v>
+        <v>0.005433281256030727</v>
       </c>
       <c r="F24">
-        <v>-0.002281036405343408</v>
+        <v>-0.04036879169413241</v>
       </c>
       <c r="G24">
-        <v>0.001629270517623009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.003103129422236267</v>
+      </c>
+      <c r="H24">
+        <v>0.006436340164609789</v>
+      </c>
+      <c r="I24">
+        <v>0.01506664896150078</v>
+      </c>
+      <c r="J24">
+        <v>0.0420700081039804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04982024710902995</v>
+        <v>0.04572325460490865</v>
       </c>
       <c r="C25">
-        <v>0.006358385128479903</v>
+        <v>-0.02242386470869732</v>
       </c>
       <c r="D25">
-        <v>-0.007644531991462059</v>
+        <v>0.005610577969125005</v>
       </c>
       <c r="E25">
-        <v>0.04083889556618556</v>
+        <v>0.003473013695023549</v>
       </c>
       <c r="F25">
-        <v>0.007884636717206839</v>
+        <v>-0.04426785463749152</v>
       </c>
       <c r="G25">
-        <v>0.009985024331612797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004019915660026186</v>
+      </c>
+      <c r="H25">
+        <v>0.00105761039063968</v>
+      </c>
+      <c r="I25">
+        <v>0.01614535171745831</v>
+      </c>
+      <c r="J25">
+        <v>0.0334837463681591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01394249632607098</v>
+        <v>0.01645756220728666</v>
       </c>
       <c r="C26">
-        <v>0.02633287609690638</v>
+        <v>-0.02416584725650807</v>
       </c>
       <c r="D26">
-        <v>0.0007869830837043975</v>
+        <v>0.005067217162919452</v>
       </c>
       <c r="E26">
-        <v>0.03513331086470878</v>
+        <v>-0.001841448903590208</v>
       </c>
       <c r="F26">
-        <v>0.01709860450101288</v>
+        <v>-0.04408688399810622</v>
       </c>
       <c r="G26">
-        <v>0.0184274903713904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02075118818395926</v>
+      </c>
+      <c r="H26">
+        <v>0.02968425171298636</v>
+      </c>
+      <c r="I26">
+        <v>0.008423165393061928</v>
+      </c>
+      <c r="J26">
+        <v>0.03719348361876158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1148831284255119</v>
+        <v>0.08029554972505007</v>
       </c>
       <c r="C27">
-        <v>0.02441155290721895</v>
+        <v>-0.03043215290198217</v>
       </c>
       <c r="D27">
-        <v>0.01569493632565407</v>
+        <v>0.01413737586927328</v>
       </c>
       <c r="E27">
-        <v>0.09919292884332269</v>
+        <v>0.02840100706572434</v>
       </c>
       <c r="F27">
-        <v>0.01176083758862755</v>
+        <v>-0.07258412116454477</v>
       </c>
       <c r="G27">
-        <v>-0.008574604101990917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0172668134803096</v>
+      </c>
+      <c r="H27">
+        <v>0.007202337033184735</v>
+      </c>
+      <c r="I27">
+        <v>-0.01339470544131672</v>
+      </c>
+      <c r="J27">
+        <v>0.04718646637393835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.001625966538115783</v>
+        <v>0.03813964696244001</v>
       </c>
       <c r="C28">
-        <v>-0.2437560032727153</v>
+        <v>0.2192464200993141</v>
       </c>
       <c r="D28">
-        <v>-0.02120706205889483</v>
+        <v>-0.09207223774839027</v>
       </c>
       <c r="E28">
-        <v>0.04149685185241077</v>
+        <v>-0.02647774805477461</v>
       </c>
       <c r="F28">
-        <v>0.02068127388845419</v>
+        <v>-0.05764931877720898</v>
       </c>
       <c r="G28">
-        <v>0.0001421719126949846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02700406956873286</v>
+      </c>
+      <c r="H28">
+        <v>-0.009445372623488948</v>
+      </c>
+      <c r="I28">
+        <v>-0.156856655272615</v>
+      </c>
+      <c r="J28">
+        <v>0.02031530910134977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02391246802195248</v>
+        <v>0.02162445755091777</v>
       </c>
       <c r="C29">
-        <v>0.01649119737829432</v>
+        <v>-0.01689211379000933</v>
       </c>
       <c r="D29">
-        <v>0.02464350195132495</v>
+        <v>0.01725792627935888</v>
       </c>
       <c r="E29">
-        <v>0.0241553570298317</v>
+        <v>0.02291614884828893</v>
       </c>
       <c r="F29">
-        <v>0.01466824614189725</v>
+        <v>-0.03754773652110475</v>
       </c>
       <c r="G29">
-        <v>0.01845197374645094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03344904734150317</v>
+      </c>
+      <c r="H29">
+        <v>0.0472834713618786</v>
+      </c>
+      <c r="I29">
+        <v>0.002090828688202188</v>
+      </c>
+      <c r="J29">
+        <v>0.01058826606967204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1053630362348475</v>
+        <v>0.09371025038526905</v>
       </c>
       <c r="C30">
-        <v>0.01421356160818454</v>
+        <v>-0.05664915152743764</v>
       </c>
       <c r="D30">
-        <v>0.01489618877580152</v>
+        <v>-0.02004703363456511</v>
       </c>
       <c r="E30">
-        <v>0.1154012378240088</v>
+        <v>0.02761568512259303</v>
       </c>
       <c r="F30">
-        <v>0.009737453340980555</v>
+        <v>-0.1016548575650398</v>
       </c>
       <c r="G30">
-        <v>0.03942686309505657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01357953836588698</v>
+      </c>
+      <c r="H30">
+        <v>0.01657263146064511</v>
+      </c>
+      <c r="I30">
+        <v>0.01693813640613566</v>
+      </c>
+      <c r="J30">
+        <v>0.03308575102763917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06043156285345956</v>
+        <v>0.06283523373072647</v>
       </c>
       <c r="C31">
-        <v>0.01470903776267972</v>
+        <v>-0.02515729710463405</v>
       </c>
       <c r="D31">
-        <v>0.02063627594150868</v>
+        <v>-0.003098182635706115</v>
       </c>
       <c r="E31">
-        <v>-0.01732142166883406</v>
+        <v>0.01928296952350124</v>
       </c>
       <c r="F31">
-        <v>0.01264756041265843</v>
+        <v>-0.002772837714040004</v>
       </c>
       <c r="G31">
-        <v>0.05164222286531338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04370913917667719</v>
+      </c>
+      <c r="H31">
+        <v>0.02947860175589861</v>
+      </c>
+      <c r="I31">
+        <v>-0.00643788723006592</v>
+      </c>
+      <c r="J31">
+        <v>0.01596157429524098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06943212378660371</v>
+        <v>0.04579514310005843</v>
       </c>
       <c r="C32">
-        <v>0.03025394071493551</v>
+        <v>-0.04373698869276574</v>
       </c>
       <c r="D32">
-        <v>0.004130541223947406</v>
+        <v>0.03273933431775819</v>
       </c>
       <c r="E32">
-        <v>0.1115701162654931</v>
+        <v>0.02184490793797497</v>
       </c>
       <c r="F32">
-        <v>-0.005303699676791344</v>
+        <v>-0.08930885042033757</v>
       </c>
       <c r="G32">
-        <v>0.02300208365963092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01379930537607983</v>
+      </c>
+      <c r="H32">
+        <v>0.03670656050413128</v>
+      </c>
+      <c r="I32">
+        <v>-0.01467094109771932</v>
+      </c>
+      <c r="J32">
+        <v>0.04901662985772029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06955247851104211</v>
+        <v>0.05798014483022018</v>
       </c>
       <c r="C33">
-        <v>0.03696823174644963</v>
+        <v>-0.05524220425366079</v>
       </c>
       <c r="D33">
-        <v>0.001690521458218656</v>
+        <v>0.000579582483348137</v>
       </c>
       <c r="E33">
-        <v>0.07158939936169589</v>
+        <v>0.002424516076738205</v>
       </c>
       <c r="F33">
-        <v>0.04820298400293076</v>
+        <v>-0.0787154096207684</v>
       </c>
       <c r="G33">
-        <v>0.011434518788593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03710985319416241</v>
+      </c>
+      <c r="H33">
+        <v>0.03591507095516382</v>
+      </c>
+      <c r="I33">
+        <v>0.01951877981985283</v>
+      </c>
+      <c r="J33">
+        <v>0.04919547354663689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04881215585799434</v>
+        <v>0.04619818551929086</v>
       </c>
       <c r="C34">
-        <v>0.01484653192179324</v>
+        <v>-0.02731880717074579</v>
       </c>
       <c r="D34">
-        <v>-0.004321430924554034</v>
+        <v>0.01356648752243912</v>
       </c>
       <c r="E34">
-        <v>0.02260718494375584</v>
+        <v>0.01199173913805562</v>
       </c>
       <c r="F34">
-        <v>-0.004594395340995937</v>
+        <v>-0.0320647675346073</v>
       </c>
       <c r="G34">
-        <v>0.01082878647817693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.004300719760557996</v>
+      </c>
+      <c r="H34">
+        <v>0.01067472416250365</v>
+      </c>
+      <c r="I34">
+        <v>0.01485313040015602</v>
+      </c>
+      <c r="J34">
+        <v>0.03148022333179003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01316247141819885</v>
+        <v>0.01584720845514688</v>
       </c>
       <c r="C36">
-        <v>-0.008074801426667269</v>
+        <v>-0.0008260693387811254</v>
       </c>
       <c r="D36">
-        <v>0.005293513264866261</v>
+        <v>0.004867675964375459</v>
       </c>
       <c r="E36">
-        <v>0.02147516305958427</v>
+        <v>0.007734569056298819</v>
       </c>
       <c r="F36">
-        <v>0.007027834117513444</v>
+        <v>-0.02786536916295268</v>
       </c>
       <c r="G36">
-        <v>0.01624052271095302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02458162392420245</v>
+      </c>
+      <c r="H36">
+        <v>0.02735989836350795</v>
+      </c>
+      <c r="I36">
+        <v>0.005042564012807232</v>
+      </c>
+      <c r="J36">
+        <v>0.002974411596283663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05578584282683243</v>
+        <v>0.03474063962497661</v>
       </c>
       <c r="C38">
-        <v>0.01035124244870574</v>
+        <v>-0.01309071241868398</v>
       </c>
       <c r="D38">
-        <v>0.02123080401653751</v>
+        <v>0.007663439382210624</v>
       </c>
       <c r="E38">
-        <v>0.03699302649214139</v>
+        <v>0.009129979555633931</v>
       </c>
       <c r="F38">
-        <v>0.00178272981324286</v>
+        <v>-0.05143771202719378</v>
       </c>
       <c r="G38">
-        <v>-0.02607773203407556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.027314447086098</v>
+      </c>
+      <c r="H38">
+        <v>0.01341616627916312</v>
+      </c>
+      <c r="I38">
+        <v>0.01083621733587261</v>
+      </c>
+      <c r="J38">
+        <v>0.003064214848739719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07559184961717527</v>
+        <v>0.05828099564910772</v>
       </c>
       <c r="C39">
-        <v>0.01281691444214764</v>
+        <v>-0.0408744311359217</v>
       </c>
       <c r="D39">
-        <v>-0.001813785028082138</v>
+        <v>0.009123189873673627</v>
       </c>
       <c r="E39">
-        <v>0.0396672503603814</v>
+        <v>0.01165321601037168</v>
       </c>
       <c r="F39">
-        <v>0.01968422438408991</v>
+        <v>-0.05583704883238304</v>
       </c>
       <c r="G39">
-        <v>0.01048981727814841</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01768134800338562</v>
+      </c>
+      <c r="H39">
+        <v>0.0001137286737592856</v>
+      </c>
+      <c r="I39">
+        <v>0.03925895329702098</v>
+      </c>
+      <c r="J39">
+        <v>0.04223770551151733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07690637215924397</v>
+        <v>0.05747735284719423</v>
       </c>
       <c r="C40">
-        <v>0.03312403970598815</v>
+        <v>-0.04802028786365786</v>
       </c>
       <c r="D40">
-        <v>-0.0004772008772736624</v>
+        <v>-0.004381572933456835</v>
       </c>
       <c r="E40">
-        <v>0.1002992645562796</v>
+        <v>0.01755942235650493</v>
       </c>
       <c r="F40">
-        <v>0.02915904558639177</v>
+        <v>-0.09657701436374783</v>
       </c>
       <c r="G40">
-        <v>-0.04108406710163678</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02662130323715474</v>
+      </c>
+      <c r="H40">
+        <v>0.05195582146958593</v>
+      </c>
+      <c r="I40">
+        <v>0.0004365134094636991</v>
+      </c>
+      <c r="J40">
+        <v>0.1173388197985669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004454198529734622</v>
+        <v>0.002658575463959399</v>
       </c>
       <c r="C41">
-        <v>0.01237471407903394</v>
+        <v>-0.01078704529101701</v>
       </c>
       <c r="D41">
-        <v>0.02187089188788243</v>
+        <v>0.005032104185799211</v>
       </c>
       <c r="E41">
-        <v>0.01317284230647463</v>
+        <v>0.005569436713605086</v>
       </c>
       <c r="F41">
-        <v>0.03019039924929597</v>
+        <v>-0.01502157041515047</v>
       </c>
       <c r="G41">
-        <v>0.02260343678981342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03897551282748132</v>
+      </c>
+      <c r="H41">
+        <v>0.03066587609676945</v>
+      </c>
+      <c r="I41">
+        <v>-0.01751558963620973</v>
+      </c>
+      <c r="J41">
+        <v>0.01479594637838242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1189016620415034</v>
+        <v>0.2141495305119269</v>
       </c>
       <c r="C42">
-        <v>0.2007784729044725</v>
+        <v>-0.1528673160194309</v>
       </c>
       <c r="D42">
-        <v>-0.9239752479085873</v>
+        <v>-0.01804318429112841</v>
       </c>
       <c r="E42">
-        <v>-0.1159782850497244</v>
+        <v>-0.933718471260416</v>
       </c>
       <c r="F42">
-        <v>-0.03778984662282081</v>
+        <v>0.1700588084609071</v>
       </c>
       <c r="G42">
-        <v>0.07213351759489155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.009843389143965703</v>
+      </c>
+      <c r="H42">
+        <v>0.002530808653198859</v>
+      </c>
+      <c r="I42">
+        <v>-0.04393565334453009</v>
+      </c>
+      <c r="J42">
+        <v>0.02706959468008653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008490828706247852</v>
+        <v>0.004805451534712665</v>
       </c>
       <c r="C43">
-        <v>0.01709742794679807</v>
+        <v>-0.01533479571808174</v>
       </c>
       <c r="D43">
-        <v>0.01425290446001287</v>
+        <v>0.003947583301807155</v>
       </c>
       <c r="E43">
-        <v>0.03518676047204893</v>
+        <v>0.005259701918267143</v>
       </c>
       <c r="F43">
-        <v>0.006866906217233715</v>
+        <v>-0.027987248180912</v>
       </c>
       <c r="G43">
-        <v>0.02011469598792322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02250914517526201</v>
+      </c>
+      <c r="H43">
+        <v>0.03146836126440167</v>
+      </c>
+      <c r="I43">
+        <v>-0.01034948723451787</v>
+      </c>
+      <c r="J43">
+        <v>0.02401401877023139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03933602388293495</v>
+        <v>0.02811681798871694</v>
       </c>
       <c r="C44">
-        <v>0.04084996696982645</v>
+        <v>-0.04006786168947879</v>
       </c>
       <c r="D44">
-        <v>0.005320816735336372</v>
+        <v>0.01785227443564073</v>
       </c>
       <c r="E44">
-        <v>0.1193602933960714</v>
+        <v>0.002690893872190535</v>
       </c>
       <c r="F44">
-        <v>0.09098370420435467</v>
+        <v>-0.1230772681666432</v>
       </c>
       <c r="G44">
-        <v>0.01849548731325973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06293024898391798</v>
+      </c>
+      <c r="H44">
+        <v>0.09988700073644385</v>
+      </c>
+      <c r="I44">
+        <v>-0.02602302138069737</v>
+      </c>
+      <c r="J44">
+        <v>0.03301372693767649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02699886114222208</v>
+        <v>0.02465223647466658</v>
       </c>
       <c r="C46">
-        <v>0.01548596802392777</v>
+        <v>-0.03417453730938044</v>
       </c>
       <c r="D46">
-        <v>0.02464749005924689</v>
+        <v>0.01158775319782905</v>
       </c>
       <c r="E46">
-        <v>0.0239997610864122</v>
+        <v>0.02299561224083251</v>
       </c>
       <c r="F46">
-        <v>0.02497275232147548</v>
+        <v>-0.04621012914161932</v>
       </c>
       <c r="G46">
-        <v>0.02673752930213107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02875545152807408</v>
+      </c>
+      <c r="H46">
+        <v>0.05195270158506603</v>
+      </c>
+      <c r="I46">
+        <v>0.002806476419374844</v>
+      </c>
+      <c r="J46">
+        <v>0.02202879523635379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08700079372771752</v>
+        <v>0.09179597238201045</v>
       </c>
       <c r="C47">
-        <v>0.01079353656064634</v>
+        <v>-0.01989120997872368</v>
       </c>
       <c r="D47">
-        <v>0.02125289248258143</v>
+        <v>-0.0007155456051040294</v>
       </c>
       <c r="E47">
-        <v>-0.02037543332128089</v>
+        <v>0.02322119898349636</v>
       </c>
       <c r="F47">
-        <v>0.01060679814063835</v>
+        <v>0.01042121959026818</v>
       </c>
       <c r="G47">
-        <v>0.03234698796221813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04777357578491601</v>
+      </c>
+      <c r="H47">
+        <v>0.05226654301153238</v>
+      </c>
+      <c r="I47">
+        <v>-0.01208043750512152</v>
+      </c>
+      <c r="J47">
+        <v>0.02616275970251972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01753897653298922</v>
+        <v>0.01849306583154977</v>
       </c>
       <c r="C48">
-        <v>0.02020466419229363</v>
+        <v>-0.01968616454899645</v>
       </c>
       <c r="D48">
-        <v>0.01478160113768367</v>
+        <v>0.009552675961340325</v>
       </c>
       <c r="E48">
-        <v>0.02993623086680662</v>
+        <v>0.01019051371647629</v>
       </c>
       <c r="F48">
-        <v>0.009967409304695826</v>
+        <v>-0.03067834728889407</v>
       </c>
       <c r="G48">
-        <v>0.004632402005987813</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0161614084353144</v>
+      </c>
+      <c r="H48">
+        <v>0.02276221103410295</v>
+      </c>
+      <c r="I48">
+        <v>-0.008773554843111729</v>
+      </c>
+      <c r="J48">
+        <v>0.0151107898447524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08716044733332004</v>
+        <v>0.08812624407044176</v>
       </c>
       <c r="C50">
-        <v>0.03388722405018642</v>
+        <v>-0.03173234397081196</v>
       </c>
       <c r="D50">
-        <v>0.02539446411596629</v>
+        <v>0.02163348213327955</v>
       </c>
       <c r="E50">
-        <v>-0.01480278699401131</v>
+        <v>0.0195818986451492</v>
       </c>
       <c r="F50">
-        <v>-0.0001977786697038852</v>
+        <v>0.003682160667415918</v>
       </c>
       <c r="G50">
-        <v>0.04077722344153336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006857153907569119</v>
+      </c>
+      <c r="H50">
+        <v>0.04038951341577944</v>
+      </c>
+      <c r="I50">
+        <v>0.0146714390103171</v>
+      </c>
+      <c r="J50">
+        <v>0.004928030945580844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06768281171845221</v>
+        <v>0.04649330413803571</v>
       </c>
       <c r="C51">
-        <v>-0.02023257933791969</v>
+        <v>-0.005590981221285803</v>
       </c>
       <c r="D51">
-        <v>-0.007835306016754981</v>
+        <v>-0.01311301847816762</v>
       </c>
       <c r="E51">
-        <v>0.08281856651632961</v>
+        <v>0.008387343527286111</v>
       </c>
       <c r="F51">
-        <v>0.05508390563817461</v>
+        <v>-0.0957887019057047</v>
       </c>
       <c r="G51">
-        <v>0.05738660671963394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05681990940154515</v>
+      </c>
+      <c r="H51">
+        <v>0.0447130653155217</v>
+      </c>
+      <c r="I51">
+        <v>-0.01865015332374983</v>
+      </c>
+      <c r="J51">
+        <v>0.04578149639997838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1455886480704925</v>
+        <v>0.1277869277154315</v>
       </c>
       <c r="C53">
-        <v>0.01182363417598171</v>
+        <v>-0.03700671493285141</v>
       </c>
       <c r="D53">
-        <v>0.04356020130669476</v>
+        <v>0.004419058475814035</v>
       </c>
       <c r="E53">
-        <v>-0.0413716310319981</v>
+        <v>0.04598488337075855</v>
       </c>
       <c r="F53">
-        <v>-0.00486898650906656</v>
+        <v>0.03979068272348416</v>
       </c>
       <c r="G53">
-        <v>0.03821786061269272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02627909813563514</v>
+      </c>
+      <c r="H53">
+        <v>-0.003695470467351571</v>
+      </c>
+      <c r="I53">
+        <v>-0.03132487937741948</v>
+      </c>
+      <c r="J53">
+        <v>0.03678633110144097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02980660488438317</v>
+        <v>0.02546621736962908</v>
       </c>
       <c r="C54">
-        <v>-0.002544185057090965</v>
+        <v>-0.004124074471103804</v>
       </c>
       <c r="D54">
-        <v>0.02878541076593954</v>
+        <v>0.006726410501408104</v>
       </c>
       <c r="E54">
-        <v>0.02957901921689471</v>
+        <v>0.02372859217646277</v>
       </c>
       <c r="F54">
-        <v>0.04628710054402595</v>
+        <v>-0.03888871656226954</v>
       </c>
       <c r="G54">
-        <v>0.003423471666180045</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05307650306318579</v>
+      </c>
+      <c r="H54">
+        <v>0.0404674303672609</v>
+      </c>
+      <c r="I54">
+        <v>-0.02826166404683031</v>
+      </c>
+      <c r="J54">
+        <v>0.003021905035098022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.0990102021466303</v>
+        <v>0.1015303656530803</v>
       </c>
       <c r="C55">
-        <v>-0.004243842274534122</v>
+        <v>-0.01697801865396823</v>
       </c>
       <c r="D55">
-        <v>0.0366171071544586</v>
+        <v>0.01761047521286604</v>
       </c>
       <c r="E55">
-        <v>-0.006687389152829262</v>
+        <v>0.03055563531081089</v>
       </c>
       <c r="F55">
-        <v>-0.03837247114499943</v>
+        <v>0.02905866338101428</v>
       </c>
       <c r="G55">
-        <v>-0.01856786022294058</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.00556380947848545</v>
+      </c>
+      <c r="H55">
+        <v>0.01410469934633874</v>
+      </c>
+      <c r="I55">
+        <v>-0.01208004733189274</v>
+      </c>
+      <c r="J55">
+        <v>0.03451834678828722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.17940927873086</v>
+        <v>0.1700505238672258</v>
       </c>
       <c r="C56">
-        <v>-0.01149771933602763</v>
+        <v>-0.01808219640284781</v>
       </c>
       <c r="D56">
-        <v>0.08237329588714359</v>
+        <v>0.005909201204614429</v>
       </c>
       <c r="E56">
-        <v>-0.08545478402034272</v>
+        <v>0.08436147090283995</v>
       </c>
       <c r="F56">
-        <v>-0.07918520734164018</v>
+        <v>0.08592258942078598</v>
       </c>
       <c r="G56">
-        <v>0.00590015875204896</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02646214166828624</v>
+      </c>
+      <c r="H56">
+        <v>-0.04103193412835488</v>
+      </c>
+      <c r="I56">
+        <v>-0.02361045939020811</v>
+      </c>
+      <c r="J56">
+        <v>0.04555925994473544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09419389539394527</v>
+        <v>0.07257616681710802</v>
       </c>
       <c r="C57">
-        <v>0.02722796265125751</v>
+        <v>-0.03847353817103048</v>
       </c>
       <c r="D57">
-        <v>0.01739695466610073</v>
+        <v>-0.003916887645091477</v>
       </c>
       <c r="E57">
-        <v>0.04559236571833669</v>
+        <v>0.01017515531802736</v>
       </c>
       <c r="F57">
-        <v>0.0254696880769472</v>
+        <v>-0.0590366083847711</v>
       </c>
       <c r="G57">
-        <v>0.0185627106223677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02395322537339443</v>
+      </c>
+      <c r="H57">
+        <v>0.02580599581284858</v>
+      </c>
+      <c r="I57">
+        <v>0.004897507071566488</v>
+      </c>
+      <c r="J57">
+        <v>0.04067613533672419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1789133648259578</v>
+        <v>0.2028571570555284</v>
       </c>
       <c r="C58">
-        <v>0.01527339294491907</v>
+        <v>-0.1108280108716202</v>
       </c>
       <c r="D58">
-        <v>-0.04776365312764005</v>
+        <v>-0.05373637295719944</v>
       </c>
       <c r="E58">
-        <v>0.119400004556985</v>
+        <v>-0.01340042977927173</v>
       </c>
       <c r="F58">
-        <v>-0.06758552788596611</v>
+        <v>-0.2392787240226407</v>
       </c>
       <c r="G58">
-        <v>0.01392387577106417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1484287223448195</v>
+      </c>
+      <c r="H58">
+        <v>0.3810331109751794</v>
+      </c>
+      <c r="I58">
+        <v>0.04243502963329823</v>
+      </c>
+      <c r="J58">
+        <v>-0.7637035610304518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01244261987802428</v>
+        <v>0.03906752539781484</v>
       </c>
       <c r="C59">
-        <v>-0.2018723964648051</v>
+        <v>0.1738531354070416</v>
       </c>
       <c r="D59">
-        <v>0.007102180659840108</v>
+        <v>-0.09304390666432688</v>
       </c>
       <c r="E59">
-        <v>0.05715644885552414</v>
+        <v>0.008202235536418519</v>
       </c>
       <c r="F59">
-        <v>0.01215438586740456</v>
+        <v>-0.07375177609693503</v>
       </c>
       <c r="G59">
-        <v>0.009419856989386331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004514185338289694</v>
+      </c>
+      <c r="H59">
+        <v>-0.02178128842914644</v>
+      </c>
+      <c r="I59">
+        <v>-0.06029388575143463</v>
+      </c>
+      <c r="J59">
+        <v>-0.007000196613475183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1871251950611331</v>
+        <v>0.1836919566850286</v>
       </c>
       <c r="C60">
-        <v>-0.1019498824800643</v>
+        <v>0.02667875525552083</v>
       </c>
       <c r="D60">
-        <v>0.0007180409861061774</v>
+        <v>-0.06652630735694366</v>
       </c>
       <c r="E60">
-        <v>0.1879321202101348</v>
+        <v>0.01111595832747223</v>
       </c>
       <c r="F60">
-        <v>0.05900873604327549</v>
+        <v>-0.2048303159024791</v>
       </c>
       <c r="G60">
-        <v>0.0207440046198609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09299612188920935</v>
+      </c>
+      <c r="H60">
+        <v>-0.2617543909951116</v>
+      </c>
+      <c r="I60">
+        <v>0.09140133433134827</v>
+      </c>
+      <c r="J60">
+        <v>0.007468700079923862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05062734913957602</v>
+        <v>0.03905558977742078</v>
       </c>
       <c r="C61">
-        <v>0.002198193921287214</v>
+        <v>-0.02375942706355109</v>
       </c>
       <c r="D61">
-        <v>-0.00825428989421147</v>
+        <v>0.009022511851657056</v>
       </c>
       <c r="E61">
-        <v>0.03817667076678678</v>
+        <v>0.001894217208575961</v>
       </c>
       <c r="F61">
-        <v>0.008529533908206833</v>
+        <v>-0.03923981444196351</v>
       </c>
       <c r="G61">
-        <v>0.005970645297670539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008704449837841115</v>
+      </c>
+      <c r="H61">
+        <v>-0.001417562683421251</v>
+      </c>
+      <c r="I61">
+        <v>0.03941900638924586</v>
+      </c>
+      <c r="J61">
+        <v>0.0208288079449171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04849144106161338</v>
+        <v>0.03224289456607231</v>
       </c>
       <c r="C63">
-        <v>-0.00166794538089824</v>
+        <v>-0.01929880327514403</v>
       </c>
       <c r="D63">
-        <v>0.01268088655325228</v>
+        <v>0.004898946666127965</v>
       </c>
       <c r="E63">
-        <v>0.03238399646843726</v>
+        <v>0.01265475018850687</v>
       </c>
       <c r="F63">
-        <v>0.004888676523200058</v>
+        <v>-0.0279181855410938</v>
       </c>
       <c r="G63">
-        <v>0.01618348538439094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01833008831548203</v>
+      </c>
+      <c r="H63">
+        <v>0.03939155239675931</v>
+      </c>
+      <c r="I63">
+        <v>-0.02285837647191878</v>
+      </c>
+      <c r="J63">
+        <v>0.03832255011506322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08345885627295116</v>
+        <v>0.05608724309697919</v>
       </c>
       <c r="C64">
-        <v>0.0443680045736784</v>
+        <v>-0.04135961380131727</v>
       </c>
       <c r="D64">
-        <v>0.05976307228269317</v>
+        <v>0.03225954027043013</v>
       </c>
       <c r="E64">
-        <v>0.06328136782398294</v>
+        <v>0.03692531925297251</v>
       </c>
       <c r="F64">
-        <v>0.0582454716658644</v>
+        <v>-0.05424514844423502</v>
       </c>
       <c r="G64">
-        <v>-0.02451781206535725</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05596404899736913</v>
+      </c>
+      <c r="H64">
+        <v>-0.005776475542651145</v>
+      </c>
+      <c r="I64">
+        <v>-0.015977375378288</v>
+      </c>
+      <c r="J64">
+        <v>0.1003677487298296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01921102184321267</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007043404912566795</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009882149961497085</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004070354966055442</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001151311049300913</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02235669897036145</v>
+      </c>
+      <c r="H65">
+        <v>0.0004530399483412021</v>
+      </c>
+      <c r="I65">
+        <v>0.01323748450047122</v>
+      </c>
+      <c r="J65">
+        <v>0.001759270551789222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09462832506363857</v>
+        <v>0.06953340981678589</v>
       </c>
       <c r="C66">
-        <v>0.02597207925680148</v>
+        <v>-0.05805989266814864</v>
       </c>
       <c r="D66">
-        <v>0.0323041768805877</v>
+        <v>0.00778927925702102</v>
       </c>
       <c r="E66">
-        <v>0.07787316785716389</v>
+        <v>0.03909772716664606</v>
       </c>
       <c r="F66">
-        <v>0.04442810393636865</v>
+        <v>-0.0706633596580354</v>
       </c>
       <c r="G66">
-        <v>0.01867982755315348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01628109327324537</v>
+      </c>
+      <c r="H66">
+        <v>-0.00269003614430703</v>
+      </c>
+      <c r="I66">
+        <v>0.05212739817226324</v>
+      </c>
+      <c r="J66">
+        <v>0.06658214064267777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06241304236441409</v>
+        <v>0.04627500105352449</v>
       </c>
       <c r="C67">
-        <v>-0.01380731478493405</v>
+        <v>0.001611949831027795</v>
       </c>
       <c r="D67">
-        <v>0.006905791242469957</v>
+        <v>-0.002853097847337304</v>
       </c>
       <c r="E67">
-        <v>0.03158463568520083</v>
+        <v>0.007798485867896594</v>
       </c>
       <c r="F67">
-        <v>0.005315319101224037</v>
+        <v>-0.0408684511106138</v>
       </c>
       <c r="G67">
-        <v>-0.03633503554791689</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0327012302050596</v>
+      </c>
+      <c r="H67">
+        <v>-0.009191246013980645</v>
+      </c>
+      <c r="I67">
+        <v>0.04036560708707125</v>
+      </c>
+      <c r="J67">
+        <v>0.009938554484923683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01131272001703031</v>
+        <v>0.04401683483742115</v>
       </c>
       <c r="C68">
-        <v>-0.2485369918940914</v>
+        <v>0.214888447710323</v>
       </c>
       <c r="D68">
-        <v>-0.01034220543896885</v>
+        <v>-0.1064105620263601</v>
       </c>
       <c r="E68">
-        <v>0.04140834457530686</v>
+        <v>-0.005240358050199399</v>
       </c>
       <c r="F68">
-        <v>0.006906451504582641</v>
+        <v>-0.05676929580003059</v>
       </c>
       <c r="G68">
-        <v>0.01859388585039139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.00146592490712744</v>
+      </c>
+      <c r="H68">
+        <v>-0.01421282849901968</v>
+      </c>
+      <c r="I68">
+        <v>-0.174751342676564</v>
+      </c>
+      <c r="J68">
+        <v>-0.04155865980442634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07236808044396534</v>
+        <v>0.07232799873172337</v>
       </c>
       <c r="C69">
-        <v>0.01438007188294937</v>
+        <v>-0.02300324130177684</v>
       </c>
       <c r="D69">
-        <v>0.02272798110153442</v>
+        <v>0.001865435125669334</v>
       </c>
       <c r="E69">
-        <v>-0.01117026111043689</v>
+        <v>0.02811751490766648</v>
       </c>
       <c r="F69">
-        <v>0.001151093150112144</v>
+        <v>-0.0002011340760366322</v>
       </c>
       <c r="G69">
-        <v>0.02750327112296848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02948610176462809</v>
+      </c>
+      <c r="H69">
+        <v>0.02623730129815524</v>
+      </c>
+      <c r="I69">
+        <v>0.01086189314246145</v>
+      </c>
+      <c r="J69">
+        <v>0.03044006390643112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01184206658415101</v>
+        <v>0.05115513722278232</v>
       </c>
       <c r="C71">
-        <v>-0.2726508510578008</v>
+        <v>0.223306995962255</v>
       </c>
       <c r="D71">
-        <v>-0.01439082315817483</v>
+        <v>-0.1183930853134416</v>
       </c>
       <c r="E71">
-        <v>0.08238060957989192</v>
+        <v>-0.02308496048328793</v>
       </c>
       <c r="F71">
-        <v>0.02207894816089787</v>
+        <v>-0.0832634796039058</v>
       </c>
       <c r="G71">
-        <v>0.03756401384495757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01475148820107109</v>
+      </c>
+      <c r="H71">
+        <v>-0.03413656962465017</v>
+      </c>
+      <c r="I71">
+        <v>-0.125961693435453</v>
+      </c>
+      <c r="J71">
+        <v>-0.009193269533727046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1168749916790364</v>
+        <v>0.12122430677808</v>
       </c>
       <c r="C72">
-        <v>-0.006084599669142274</v>
+        <v>-0.03017679918368287</v>
       </c>
       <c r="D72">
-        <v>0.03446673876904876</v>
+        <v>0.003134536106701363</v>
       </c>
       <c r="E72">
-        <v>0.1007728705284403</v>
+        <v>0.05563789256375832</v>
       </c>
       <c r="F72">
-        <v>-0.01330120950609014</v>
+        <v>-0.08669682572414236</v>
       </c>
       <c r="G72">
-        <v>-0.0234226243356757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04752380429331576</v>
+      </c>
+      <c r="H72">
+        <v>0.002129276883176708</v>
+      </c>
+      <c r="I72">
+        <v>0.04935099602596156</v>
+      </c>
+      <c r="J72">
+        <v>-0.0874570768551509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2836241266987466</v>
+        <v>0.2675077373590899</v>
       </c>
       <c r="C73">
-        <v>-0.1696388356869472</v>
+        <v>0.04496347753937719</v>
       </c>
       <c r="D73">
-        <v>-0.07041540052677991</v>
+        <v>-0.1231753555576693</v>
       </c>
       <c r="E73">
-        <v>0.3344030296572567</v>
+        <v>-0.03125239068540443</v>
       </c>
       <c r="F73">
-        <v>0.06019583085836359</v>
+        <v>-0.3137900067499435</v>
       </c>
       <c r="G73">
-        <v>0.009022883248806278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2017632910983917</v>
+      </c>
+      <c r="H73">
+        <v>-0.4524405945602569</v>
+      </c>
+      <c r="I73">
+        <v>0.3093905392869998</v>
+      </c>
+      <c r="J73">
+        <v>-0.005858409938535299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1620139916158063</v>
+        <v>0.1533186415159392</v>
       </c>
       <c r="C74">
-        <v>-0.003332002483326715</v>
+        <v>-0.02837324514859012</v>
       </c>
       <c r="D74">
-        <v>0.0404475322340938</v>
+        <v>-0.005402812403244014</v>
       </c>
       <c r="E74">
-        <v>-0.01713267055041688</v>
+        <v>0.04648364827126976</v>
       </c>
       <c r="F74">
-        <v>-0.05759450660292911</v>
+        <v>0.05354074391081035</v>
       </c>
       <c r="G74">
-        <v>0.0563111624129174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01844464512954069</v>
+      </c>
+      <c r="H74">
+        <v>-0.0298451874704254</v>
+      </c>
+      <c r="I74">
+        <v>-0.004035789864058875</v>
+      </c>
+      <c r="J74">
+        <v>0.08617899410908322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2350556863311391</v>
+        <v>0.2455507509967226</v>
       </c>
       <c r="C75">
-        <v>-0.01121658841241764</v>
+        <v>-0.02963727524911667</v>
       </c>
       <c r="D75">
-        <v>0.07243623311410766</v>
+        <v>-0.01991644001129737</v>
       </c>
       <c r="E75">
-        <v>-0.1213492304740434</v>
+        <v>0.1069598423114767</v>
       </c>
       <c r="F75">
-        <v>-0.04258263145102539</v>
+        <v>0.1422896765182388</v>
       </c>
       <c r="G75">
-        <v>0.04486219016201227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004637636259963471</v>
+      </c>
+      <c r="H75">
+        <v>-0.02415835989964326</v>
+      </c>
+      <c r="I75">
+        <v>-0.08777487326086231</v>
+      </c>
+      <c r="J75">
+        <v>0.03324980636219211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2467677737442407</v>
+        <v>0.2682410388519043</v>
       </c>
       <c r="C76">
-        <v>-0.01177736352040622</v>
+        <v>-0.01579217286317099</v>
       </c>
       <c r="D76">
-        <v>0.109871598311175</v>
+        <v>0.01438405537061952</v>
       </c>
       <c r="E76">
-        <v>-0.1172587800430654</v>
+        <v>0.1301509448042142</v>
       </c>
       <c r="F76">
-        <v>-0.07208695037056254</v>
+        <v>0.1761663175254082</v>
       </c>
       <c r="G76">
-        <v>0.04710718478021239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04706876702153784</v>
+      </c>
+      <c r="H76">
+        <v>-0.0451116696529271</v>
+      </c>
+      <c r="I76">
+        <v>-0.01809835837830657</v>
+      </c>
+      <c r="J76">
+        <v>0.06904044563015428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1331249448851826</v>
+        <v>0.1298790626751908</v>
       </c>
       <c r="C77">
-        <v>0.02484678194998067</v>
+        <v>-0.06427931979051243</v>
       </c>
       <c r="D77">
-        <v>-0.05414095898511934</v>
+        <v>0.01402484815237469</v>
       </c>
       <c r="E77">
-        <v>0.1454416117965138</v>
+        <v>-0.04545294333753813</v>
       </c>
       <c r="F77">
-        <v>0.002774248504595017</v>
+        <v>-0.1592657378162809</v>
       </c>
       <c r="G77">
-        <v>-0.07074098370676181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01239884993669296</v>
+      </c>
+      <c r="H77">
+        <v>0.1998619564638628</v>
+      </c>
+      <c r="I77">
+        <v>-0.1789965200996866</v>
+      </c>
+      <c r="J77">
+        <v>0.1182585169835199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08629573283678965</v>
+        <v>0.08068656685193323</v>
       </c>
       <c r="C78">
-        <v>0.04217360473611414</v>
+        <v>-0.06947780527654941</v>
       </c>
       <c r="D78">
-        <v>-0.02132280949546914</v>
+        <v>0.03210933750507057</v>
       </c>
       <c r="E78">
-        <v>0.05099027175670768</v>
+        <v>-0.001138272567218802</v>
       </c>
       <c r="F78">
-        <v>0.01175609665437473</v>
+        <v>-0.07349870384971931</v>
       </c>
       <c r="G78">
-        <v>0.01621134444315059</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01008074446346839</v>
+      </c>
+      <c r="H78">
+        <v>0.02682842351633849</v>
+      </c>
+      <c r="I78">
+        <v>-0.02081465570293654</v>
+      </c>
+      <c r="J78">
+        <v>0.0502812007452731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0667077806580615</v>
+        <v>0.1518214589531495</v>
       </c>
       <c r="C80">
-        <v>0.02154761993660665</v>
+        <v>0.4136208483191428</v>
       </c>
       <c r="D80">
-        <v>-0.01464354923408935</v>
+        <v>0.8796080440522087</v>
       </c>
       <c r="E80">
-        <v>-0.02444652594418915</v>
+        <v>-0.06871994897751241</v>
       </c>
       <c r="F80">
-        <v>-0.1685422767562893</v>
+        <v>-0.04909407724570488</v>
       </c>
       <c r="G80">
-        <v>-0.9244997996649569</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04275645798519544</v>
+      </c>
+      <c r="H80">
+        <v>-0.05664943171469437</v>
+      </c>
+      <c r="I80">
+        <v>0.01927640277153162</v>
+      </c>
+      <c r="J80">
+        <v>-0.1028651037068574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1628822427663992</v>
+        <v>0.1798453988413297</v>
       </c>
       <c r="C81">
-        <v>-0.01048665287104865</v>
+        <v>-0.008967675609566577</v>
       </c>
       <c r="D81">
-        <v>0.05892546099862783</v>
+        <v>-0.005375240487912084</v>
       </c>
       <c r="E81">
-        <v>-0.1517506894329834</v>
+        <v>0.08565915838824263</v>
       </c>
       <c r="F81">
-        <v>-0.1001429233659346</v>
+        <v>0.1609316279807121</v>
       </c>
       <c r="G81">
-        <v>0.04430560449249561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02789452966032736</v>
+      </c>
+      <c r="H81">
+        <v>-0.01229756855461486</v>
+      </c>
+      <c r="I81">
+        <v>-0.05243788745388168</v>
+      </c>
+      <c r="J81">
+        <v>0.01146038276615019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09167183078331845</v>
+        <v>0.06877120380140631</v>
       </c>
       <c r="C83">
-        <v>0.04587718536535788</v>
+        <v>-0.04881297856268094</v>
       </c>
       <c r="D83">
-        <v>-0.08268882319493008</v>
+        <v>0.002473777169921572</v>
       </c>
       <c r="E83">
-        <v>0.006967684312485289</v>
+        <v>-0.04272028102732857</v>
       </c>
       <c r="F83">
-        <v>0.06049218954421987</v>
+        <v>-0.04552503716819663</v>
       </c>
       <c r="G83">
-        <v>0.01242377359073973</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06043237478425902</v>
+      </c>
+      <c r="H83">
+        <v>0.01587835239647268</v>
+      </c>
+      <c r="I83">
+        <v>-0.01491978207540664</v>
+      </c>
+      <c r="J83">
+        <v>0.08117790913996627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2332265198795261</v>
+        <v>0.2515516628382667</v>
       </c>
       <c r="C85">
-        <v>0.05225916553957351</v>
+        <v>-0.05352698981085221</v>
       </c>
       <c r="D85">
-        <v>0.07264972416068531</v>
+        <v>0.01239278008366918</v>
       </c>
       <c r="E85">
-        <v>-0.1431790323663346</v>
+        <v>0.08797794065651808</v>
       </c>
       <c r="F85">
-        <v>-0.06475787470038981</v>
+        <v>0.1786909544145576</v>
       </c>
       <c r="G85">
-        <v>0.02898046025784162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.00687314064884849</v>
+      </c>
+      <c r="H85">
+        <v>0.01555740005862908</v>
+      </c>
+      <c r="I85">
+        <v>-0.05025070948389385</v>
+      </c>
+      <c r="J85">
+        <v>0.08976349131834786</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04474543511741391</v>
+        <v>0.02685922720227905</v>
       </c>
       <c r="C86">
-        <v>0.04874677969382948</v>
+        <v>-0.06110806576908463</v>
       </c>
       <c r="D86">
-        <v>0.008784425799135473</v>
+        <v>0.02579591934487937</v>
       </c>
       <c r="E86">
-        <v>0.06276793143800316</v>
+        <v>0.006876855706074549</v>
       </c>
       <c r="F86">
-        <v>0.0006434013189524899</v>
+        <v>-0.06950441753686955</v>
       </c>
       <c r="G86">
-        <v>0.02872925791589656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006182881276309763</v>
+      </c>
+      <c r="H86">
+        <v>0.06381203097715471</v>
+      </c>
+      <c r="I86">
+        <v>-0.02413483905619298</v>
+      </c>
+      <c r="J86">
+        <v>0.0451948214409391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02388837736050774</v>
+        <v>0.03449512370174805</v>
       </c>
       <c r="C87">
-        <v>-0.05216872344208625</v>
+        <v>0.01100848562113676</v>
       </c>
       <c r="D87">
-        <v>0.001215389498813736</v>
+        <v>-0.01018225872045931</v>
       </c>
       <c r="E87">
-        <v>0.09474283923257172</v>
+        <v>0.002610835316707731</v>
       </c>
       <c r="F87">
-        <v>-0.01328418870612923</v>
+        <v>-0.1028419273700255</v>
       </c>
       <c r="G87">
-        <v>0.03744943848741999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02090292255162155</v>
+      </c>
+      <c r="H87">
+        <v>0.0184358608089885</v>
+      </c>
+      <c r="I87">
+        <v>0.01882980406799914</v>
+      </c>
+      <c r="J87">
+        <v>0.01548404328805178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0402252537986041</v>
+        <v>0.02803047667619982</v>
       </c>
       <c r="C88">
-        <v>0.03387630799386397</v>
+        <v>-0.0165111378884395</v>
       </c>
       <c r="D88">
-        <v>0.008997898468685293</v>
+        <v>0.01940934900286308</v>
       </c>
       <c r="E88">
-        <v>-0.01115474591733555</v>
+        <v>0.01472202199652425</v>
       </c>
       <c r="F88">
-        <v>-0.0123510677182767</v>
+        <v>0.009292450420954539</v>
       </c>
       <c r="G88">
-        <v>0.0103841953234169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03986990299475431</v>
+      </c>
+      <c r="H88">
+        <v>0.03713491033397185</v>
+      </c>
+      <c r="I88">
+        <v>0.0283697783976153</v>
+      </c>
+      <c r="J88">
+        <v>0.03378531680907505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.004712762079092995</v>
+        <v>0.06571249613354649</v>
       </c>
       <c r="C89">
-        <v>-0.4150179694595956</v>
+        <v>0.3461398006292268</v>
       </c>
       <c r="D89">
-        <v>-0.09077732404721033</v>
+        <v>-0.1901333185647731</v>
       </c>
       <c r="E89">
-        <v>-0.01167507541885478</v>
+        <v>-0.03800185378339394</v>
       </c>
       <c r="F89">
-        <v>0.009428590453583076</v>
+        <v>-0.04021994789229281</v>
       </c>
       <c r="G89">
-        <v>0.02329993547570377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0471485141274618</v>
+      </c>
+      <c r="H89">
+        <v>0.03686134131120965</v>
+      </c>
+      <c r="I89">
+        <v>-0.2692231078484872</v>
+      </c>
+      <c r="J89">
+        <v>-0.03998209006206788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-6.323762433015167e-05</v>
+        <v>0.04597646358571458</v>
       </c>
       <c r="C90">
-        <v>-0.3098043423605299</v>
+        <v>0.3035683587647638</v>
       </c>
       <c r="D90">
-        <v>-0.03095926680891739</v>
+        <v>-0.1477118095055765</v>
       </c>
       <c r="E90">
-        <v>0.04132869732576164</v>
+        <v>-0.02602087132178594</v>
       </c>
       <c r="F90">
-        <v>0.01697375908666881</v>
+        <v>-0.03549720997232683</v>
       </c>
       <c r="G90">
-        <v>0.03801492938084185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02600781292386132</v>
+      </c>
+      <c r="H90">
+        <v>0.001345741723124375</v>
+      </c>
+      <c r="I90">
+        <v>-0.2301394627300003</v>
+      </c>
+      <c r="J90">
+        <v>-0.009119948308755456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2895812277395545</v>
+        <v>0.3038186445778636</v>
       </c>
       <c r="C91">
-        <v>0.01928695752736418</v>
+        <v>-0.03722815356860076</v>
       </c>
       <c r="D91">
-        <v>0.08634339170025639</v>
+        <v>-0.002463432654317175</v>
       </c>
       <c r="E91">
-        <v>-0.2914920042826128</v>
+        <v>0.09654326151954254</v>
       </c>
       <c r="F91">
-        <v>-0.1410210982413308</v>
+        <v>0.2971506422047948</v>
       </c>
       <c r="G91">
-        <v>-0.0377450965638254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03301169891186262</v>
+      </c>
+      <c r="H91">
+        <v>-0.009781260528124247</v>
+      </c>
+      <c r="I91">
+        <v>-0.1213893803066785</v>
+      </c>
+      <c r="J91">
+        <v>0.07217756076203866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.007492032919146543</v>
+        <v>0.1023161537883573</v>
       </c>
       <c r="C92">
-        <v>-0.428071589046026</v>
+        <v>0.4101110303189342</v>
       </c>
       <c r="D92">
-        <v>-0.1966020421950748</v>
+        <v>-0.1738624457196309</v>
       </c>
       <c r="E92">
-        <v>-0.1510575839424739</v>
+        <v>-0.05430413662540839</v>
       </c>
       <c r="F92">
-        <v>-0.08238122645126306</v>
+        <v>0.1132793726927664</v>
       </c>
       <c r="G92">
-        <v>-0.1490700905741573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.1152932586403225</v>
+      </c>
+      <c r="H92">
+        <v>0.4439457141443452</v>
+      </c>
+      <c r="I92">
+        <v>0.6984130147150106</v>
+      </c>
+      <c r="J92">
+        <v>0.212840257755997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01158928285975559</v>
+        <v>0.05065518692351639</v>
       </c>
       <c r="C93">
-        <v>-0.3719146073936917</v>
+        <v>0.361703368308109</v>
       </c>
       <c r="D93">
-        <v>-0.06852638200854604</v>
+        <v>-0.1914162113725384</v>
       </c>
       <c r="E93">
-        <v>-0.03093336823368731</v>
+        <v>-0.05420758374724782</v>
       </c>
       <c r="F93">
-        <v>-0.01183190711488698</v>
+        <v>-0.006582159440345804</v>
       </c>
       <c r="G93">
-        <v>-0.03786066409057368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03471839866634237</v>
+      </c>
+      <c r="H93">
+        <v>-0.02790368021453335</v>
+      </c>
+      <c r="I93">
+        <v>-0.177624004873528</v>
+      </c>
+      <c r="J93">
+        <v>-0.04190455942037056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2749766080339306</v>
+        <v>0.3048261381831804</v>
       </c>
       <c r="C94">
-        <v>-0.06721226686581409</v>
+        <v>-0.001073927064289834</v>
       </c>
       <c r="D94">
-        <v>0.04134601960774469</v>
+        <v>-0.0457800210562784</v>
       </c>
       <c r="E94">
-        <v>-0.343481078240089</v>
+        <v>0.1382456698156469</v>
       </c>
       <c r="F94">
-        <v>-0.4028549209481919</v>
+        <v>0.3365482211459813</v>
       </c>
       <c r="G94">
-        <v>0.1508635077600723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.189287212658164</v>
+      </c>
+      <c r="H94">
+        <v>0.1542983470941102</v>
+      </c>
+      <c r="I94">
+        <v>-0.02414668576606791</v>
+      </c>
+      <c r="J94">
+        <v>-0.1755175290196668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.200147199212265</v>
+        <v>0.1298487967180309</v>
       </c>
       <c r="C95">
-        <v>-0.02478992620358133</v>
+        <v>-0.08644204736153428</v>
       </c>
       <c r="D95">
-        <v>0.008483690302286875</v>
+        <v>-0.0703236966631013</v>
       </c>
       <c r="E95">
-        <v>-0.4099028411938747</v>
+        <v>0.0252386963364496</v>
       </c>
       <c r="F95">
-        <v>0.8260665684583051</v>
+        <v>0.06473502844177034</v>
       </c>
       <c r="G95">
-        <v>-0.1249684652434635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8876425467938229</v>
+      </c>
+      <c r="H95">
+        <v>-0.2115646116735857</v>
+      </c>
+      <c r="I95">
+        <v>0.07571647329428423</v>
+      </c>
+      <c r="J95">
+        <v>-0.2749218748028195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2216590138255498</v>
+        <v>0.2090429602623494</v>
       </c>
       <c r="C98">
-        <v>-0.1190517118018456</v>
+        <v>0.03311490618694272</v>
       </c>
       <c r="D98">
-        <v>-0.06036536184010396</v>
+        <v>-0.08775769763941664</v>
       </c>
       <c r="E98">
-        <v>0.08907358826802415</v>
+        <v>-0.02821311088456797</v>
       </c>
       <c r="F98">
-        <v>0.05934045689811403</v>
+        <v>-0.1584504208252301</v>
       </c>
       <c r="G98">
-        <v>0.06253332396554247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.09779075070606584</v>
+      </c>
+      <c r="H98">
+        <v>-0.3192573740314334</v>
+      </c>
+      <c r="I98">
+        <v>0.1636762218904378</v>
+      </c>
+      <c r="J98">
+        <v>-0.0610704525585627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02362661098093093</v>
+        <v>0.01534750882116682</v>
       </c>
       <c r="C101">
-        <v>0.01685664943542413</v>
+        <v>-0.02891445841907808</v>
       </c>
       <c r="D101">
-        <v>0.026198106049327</v>
+        <v>0.01825944930507443</v>
       </c>
       <c r="E101">
-        <v>0.02473274856759128</v>
+        <v>0.02911643840706214</v>
       </c>
       <c r="F101">
-        <v>0.01445827957329435</v>
+        <v>-0.06742610952701478</v>
       </c>
       <c r="G101">
-        <v>0.01849144787890604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02182751670148966</v>
+      </c>
+      <c r="H101">
+        <v>0.1097530503891778</v>
+      </c>
+      <c r="I101">
+        <v>0.03712376892358168</v>
+      </c>
+      <c r="J101">
+        <v>-0.1119116743216771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1193592529831031</v>
+        <v>0.1207678837317436</v>
       </c>
       <c r="C102">
-        <v>0.01422083547193713</v>
+        <v>-0.02209011562055368</v>
       </c>
       <c r="D102">
-        <v>0.04357978483703417</v>
+        <v>0.01033065861378751</v>
       </c>
       <c r="E102">
-        <v>-0.08206061913516537</v>
+        <v>0.05303422042548143</v>
       </c>
       <c r="F102">
-        <v>-0.003287809318848136</v>
+        <v>0.09611715644086967</v>
       </c>
       <c r="G102">
-        <v>-0.003724691707593334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02128172924349797</v>
+      </c>
+      <c r="H102">
+        <v>-0.02363984681404614</v>
+      </c>
+      <c r="I102">
+        <v>-0.0441603346376109</v>
+      </c>
+      <c r="J102">
+        <v>0.04117245532711562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01897019632524389</v>
+        <v>0.03180570978212326</v>
       </c>
       <c r="C103">
-        <v>0.00163725928501604</v>
+        <v>-0.005767125369714431</v>
       </c>
       <c r="D103">
-        <v>0.01240884303460826</v>
+        <v>0.009847386767402464</v>
       </c>
       <c r="E103">
-        <v>-0.02942427446380663</v>
+        <v>0.01989469097809515</v>
       </c>
       <c r="F103">
-        <v>-0.01245751562425574</v>
+        <v>0.02622059290965735</v>
       </c>
       <c r="G103">
-        <v>0.02125882716610724</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0157762440913325</v>
+      </c>
+      <c r="H103">
+        <v>0.01245448647475289</v>
+      </c>
+      <c r="I103">
+        <v>-0.02949419825571294</v>
+      </c>
+      <c r="J103">
+        <v>0.01451224829181242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
